--- a/common/entregables/entregables.xlsx
+++ b/common/entregables/entregables.xlsx
@@ -707,8 +707,8 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
